--- a/Criteria_Validator/bin/Debug/REVIT output.xlsx
+++ b/Criteria_Validator/bin/Debug/REVIT output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Count</t>
   </si>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,31 +83,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,13 +92,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,22 +114,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -197,6 +151,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -213,15 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,45 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -519,17 +480,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,26 +528,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,130 +578,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1099,34 +1099,82 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>548534</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>548535</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>548536</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
